--- a/files/excelFilesforFigures/Figure3.xlsx
+++ b/files/excelFilesforFigures/Figure3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6625153-7C86-49E9-B9FD-978071E6496A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143B88B1-251E-419C-A5FE-D0514D4B7BAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -571,7 +571,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1F0F-4FBA-A0CC-759C7BA017E7}"/>
@@ -976,7 +976,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1F0F-4FBA-A0CC-759C7BA017E7}"/>
@@ -1399,7 +1399,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1F0F-4FBA-A0CC-759C7BA017E7}"/>
@@ -2316,10 +2316,10 @@
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2613,7 +2613,7 @@
   <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files/excelFilesforFigures/Figure3.xlsx
+++ b/files/excelFilesforFigures/Figure3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143B88B1-251E-419C-A5FE-D0514D4B7BAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062BF3D0-C9A4-42E8-A0D0-670808751C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,19 +134,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -602,19 +590,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1007,19 +983,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2613,7 +2577,7 @@
   <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
